--- a/input/holdridge_coordinates.xlsx
+++ b/input/holdridge_coordinates.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Kummu_GIS/matlab/mountain_water_stress/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heinom2\holdridge\to_repositories\holdridge_script_to_git\to_git_may11\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C857DAE-E5EB-4DAE-86F1-C2974EF3D8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42920" yWindow="2380" windowWidth="29900" windowHeight="21040"/>
+    <workbookView xWindow="5520" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,16 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dani</author>
   </authors>
   <commentList>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0">
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -260,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -297,11 +306,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -319,6 +348,10 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,14 +362,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -355,9 +391,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.115310222245514"/>
-          <c:y val="0.0372317896882608"/>
-          <c:w val="0.822564099204737"/>
-          <c:h val="0.837171853038524"/>
+          <c:y val="3.7231789688260797E-2"/>
+          <c:w val="0.82256409920473705"/>
+          <c:h val="0.83717185303852404"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -375,7 +411,7 @@
             <c:numRef>
               <c:f>Tabelle1!$M$10:$M$51</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
@@ -390,7 +426,7 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.625</c:v>
@@ -399,7 +435,7 @@
                   <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.43749999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5625</c:v>
@@ -411,7 +447,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.375</c:v>
+                  <c:v>0.37499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.5</c:v>
@@ -426,7 +462,7 @@
                   <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.31249999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.4375</c:v>
@@ -444,7 +480,7 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.375</c:v>
@@ -462,10 +498,10 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0624999999999999</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.18749999999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.3125</c:v>
@@ -492,7 +528,7 @@
             <c:numRef>
               <c:f>Tabelle1!$N$10:$N$51</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0.875</c:v>
@@ -501,13 +537,13 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.75000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.625</c:v>
+                  <c:v>0.62500000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.625</c:v>
@@ -516,7 +552,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.50000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
@@ -528,13 +564,13 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.375</c:v>
+                  <c:v>0.37500000000000011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.375</c:v>
+                  <c:v>0.37500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.375</c:v>
+                  <c:v>0.37500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.375</c:v>
@@ -543,13 +579,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.25</c:v>
@@ -561,13 +597,13 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.125</c:v>
+                  <c:v>0.12500000000000008</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.125</c:v>
+                  <c:v>0.12500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.125</c:v>
+                  <c:v>0.12500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.125</c:v>
@@ -579,33 +615,38 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.19189119579732E-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D9E-46B1-B82D-866AB8B2B88A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -631,10 +672,10 @@
             <c:numRef>
               <c:f>Tabelle1!$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.171284875979337</c:v>
+                  <c:v>0.17128487597933678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,15 +684,20 @@
             <c:numRef>
               <c:f>Tabelle1!$N$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.173051775680514</c:v>
+                  <c:v>0.17305177568051411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D9E-46B1-B82D-866AB8B2B88A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -678,6 +724,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5D9E-46B1-B82D-866AB8B2B88A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -686,112 +737,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,117 +854,122 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5D9E-46B1-B82D-866AB8B2B88A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -930,12 +986,12 @@
         <c:axId val="-2123040624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -947,12 +1003,12 @@
         <c:axId val="-2123037664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -990,16 +1046,16 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1018,9 +1074,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.115310222245514"/>
-          <c:y val="0.0372317896882608"/>
-          <c:w val="0.81701778750202"/>
-          <c:h val="0.878758641085357"/>
+          <c:y val="3.7231789688260797E-2"/>
+          <c:w val="0.81701778750202003"/>
+          <c:h val="0.87875864108535695"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1154,7 +1210,7 @@
             <c:numRef>
               <c:f>Tabelle1!$M$10:$M$51</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
@@ -1169,7 +1225,7 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.625</c:v>
@@ -1178,7 +1234,7 @@
                   <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.43749999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5625</c:v>
@@ -1190,7 +1246,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.375</c:v>
+                  <c:v>0.37499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.5</c:v>
@@ -1205,7 +1261,7 @@
                   <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.31249999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.4375</c:v>
@@ -1223,7 +1279,7 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.375</c:v>
@@ -1241,10 +1297,10 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0624999999999999</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.18749999999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.3125</c:v>
@@ -1271,7 +1327,7 @@
             <c:numRef>
               <c:f>Tabelle1!$N$10:$N$51</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0.875</c:v>
@@ -1280,13 +1336,13 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.75000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.625</c:v>
+                  <c:v>0.62500000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.625</c:v>
@@ -1295,7 +1351,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.50000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
@@ -1307,13 +1363,13 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.375</c:v>
+                  <c:v>0.37500000000000011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.375</c:v>
+                  <c:v>0.37500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.375</c:v>
+                  <c:v>0.37500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.375</c:v>
@@ -1322,13 +1378,13 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.25</c:v>
@@ -1340,13 +1396,13 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.125</c:v>
+                  <c:v>0.12500000000000008</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.125</c:v>
+                  <c:v>0.12500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.125</c:v>
+                  <c:v>0.12500000000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.125</c:v>
@@ -1358,33 +1414,38 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.19189119579732E-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F36F-4D16-9F00-636A5E046698}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1410,10 +1471,10 @@
             <c:numRef>
               <c:f>Tabelle1!$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.171284875979337</c:v>
+                  <c:v>0.17128487597933678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,15 +1483,20 @@
             <c:numRef>
               <c:f>Tabelle1!$N$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.173051775680514</c:v>
+                  <c:v>0.17305177568051411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F36F-4D16-9F00-636A5E046698}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1455,6 +1521,11 @@
           <c:dPt>
             <c:idx val="16"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F36F-4D16-9F00-636A5E046698}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -1463,112 +1534,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,117 +1651,122 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F36F-4D16-9F00-636A5E046698}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1707,12 +1783,12 @@
         <c:axId val="-2122939232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1724,12 +1800,12 @@
         <c:axId val="-2122932768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1770,7 +1846,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="176" workbookViewId="0" zoomToFit="1"/>
@@ -1797,7 +1873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1852,7 +1934,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1869,26 +1957,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8820150" y="4981575"/>
-          <a:ext cx="2933699" cy="895349"/>
+          <a:off x="8620125" y="5381625"/>
+          <a:ext cx="2924174" cy="904874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1978,7 +2072,13 @@
     <xdr:ext cx="9308523" cy="6068580"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2011,7 +2111,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Gerade Verbindung 2"/>
+        <cdr:cNvPr id="3" name="Gerade Verbindung 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9B41F0-E0FD-4D34-B150-C39556353905}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2050,7 +2156,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="5" name="Gerade Verbindung 4"/>
+        <cdr:cNvPr id="5" name="Gerade Verbindung 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572279B8-DCC9-46C6-922A-CCDC8200ECFA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2094,7 +2206,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="7" name="Gerade Verbindung 6"/>
+        <cdr:cNvPr id="7" name="Gerade Verbindung 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC79146-D19E-489A-9EF3-BA68AC451494}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2138,7 +2256,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="16" name="Gerade Verbindung 15"/>
+        <cdr:cNvPr id="16" name="Gerade Verbindung 15">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EC98D3-40C9-43DB-AB19-F55F17410875}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2177,7 +2301,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="17" name="Gerade Verbindung 16"/>
+        <cdr:cNvPr id="17" name="Gerade Verbindung 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B7DFEB-56DF-44F6-98F0-7825A3727C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2216,7 +2346,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="18" name="Gerade Verbindung 17"/>
+        <cdr:cNvPr id="18" name="Gerade Verbindung 17">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C75390-4635-4F2C-8C75-9D9C1F5B54F0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2255,7 +2391,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="19" name="Gerade Verbindung 18"/>
+        <cdr:cNvPr id="19" name="Gerade Verbindung 18">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD52321F-CB34-41DF-A177-65DD2694FEB3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2294,7 +2436,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="20" name="Gerade Verbindung 19"/>
+        <cdr:cNvPr id="20" name="Gerade Verbindung 19">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5191725C-CF65-4270-BCDE-2EFC9E17D2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2333,7 +2481,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="21" name="Gerade Verbindung 20"/>
+        <cdr:cNvPr id="21" name="Gerade Verbindung 20">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A3858B-BAA4-41D2-86AC-0D6B32DA938F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2372,7 +2526,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="22" name="Gerade Verbindung 21"/>
+        <cdr:cNvPr id="22" name="Gerade Verbindung 21">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77618F1F-BDC8-4371-9231-011989E49160}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2411,7 +2571,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="23" name="Gerade Verbindung 22"/>
+        <cdr:cNvPr id="23" name="Gerade Verbindung 22">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76FA2B2-02A4-46AF-9829-BFCEAF156C09}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2450,7 +2616,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="24" name="Gerade Verbindung 23"/>
+        <cdr:cNvPr id="24" name="Gerade Verbindung 23">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8183F99C-7BB8-42A7-9E22-9F173EA035FA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2489,7 +2661,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="25" name="Gerade Verbindung 24"/>
+        <cdr:cNvPr id="25" name="Gerade Verbindung 24">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4710E29B-E58B-4859-81D1-14065DCE7B99}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2528,7 +2706,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="26" name="Gerade Verbindung 25"/>
+        <cdr:cNvPr id="26" name="Gerade Verbindung 25">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F21FE90-19E7-42DD-88CE-588641E3E7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2567,7 +2751,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="27" name="Gerade Verbindung 26"/>
+        <cdr:cNvPr id="27" name="Gerade Verbindung 26">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756E2D1E-65D5-428F-91C3-E430C2459C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2606,7 +2796,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="29" name="Gerade Verbindung 28"/>
+        <cdr:cNvPr id="29" name="Gerade Verbindung 28">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018E89C8-5EC6-4F6B-BD48-38B3E6925E94}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2645,7 +2841,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="33" name="Gerade Verbindung 32"/>
+        <cdr:cNvPr id="33" name="Gerade Verbindung 32">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A6A00E-6019-4C2B-BE55-B5D01FE26D19}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2684,7 +2886,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="34" name="Gerade Verbindung 33"/>
+        <cdr:cNvPr id="34" name="Gerade Verbindung 33">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7626A644-978B-43E6-A407-28D3522476FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2723,7 +2931,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="35" name="Gerade Verbindung 34"/>
+        <cdr:cNvPr id="35" name="Gerade Verbindung 34">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E24618-D969-40A8-A414-D9DE02B2284B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2762,7 +2976,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="36" name="Gerade Verbindung 35"/>
+        <cdr:cNvPr id="36" name="Gerade Verbindung 35">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82925190-BDCA-4BE7-8888-1D6F46E5BB05}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2801,7 +3021,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="37" name="Gerade Verbindung 36"/>
+        <cdr:cNvPr id="37" name="Gerade Verbindung 36">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A5ED63-9EB4-48B9-9B90-AFC65B11C728}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2840,7 +3066,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="38" name="Gerade Verbindung 37"/>
+        <cdr:cNvPr id="38" name="Gerade Verbindung 37">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C4FAAB-C127-49EB-AE67-A63F823123EC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2879,7 +3111,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="39" name="Gerade Verbindung 38"/>
+        <cdr:cNvPr id="39" name="Gerade Verbindung 38">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CE531F-17DF-4DC9-A9EB-849C673A2703}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2918,7 +3156,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="40" name="Gerade Verbindung 39"/>
+        <cdr:cNvPr id="40" name="Gerade Verbindung 39">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EADCBAD-8EF1-465A-AFE2-518FCC49C0E8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2957,7 +3201,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="42" name="Gerade Verbindung 41"/>
+        <cdr:cNvPr id="42" name="Gerade Verbindung 41">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6DCF6B-E927-4FCA-88B6-420CBDF4E9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -2996,7 +3246,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="43" name="Gerade Verbindung 42"/>
+        <cdr:cNvPr id="43" name="Gerade Verbindung 42">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85ED249A-0D96-48AA-9D8E-2F59BFF2258D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3035,7 +3291,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="45" name="Gerade Verbindung 44"/>
+        <cdr:cNvPr id="45" name="Gerade Verbindung 44">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87A3F40-65F3-4014-B41A-D0C005E45607}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3074,7 +3336,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="46" name="Gerade Verbindung 45"/>
+        <cdr:cNvPr id="46" name="Gerade Verbindung 45">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF78247-DE80-47B3-ADAB-D0E0F7499B07}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3113,7 +3381,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="47" name="Gerade Verbindung 46"/>
+        <cdr:cNvPr id="47" name="Gerade Verbindung 46">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B058E3FA-B95E-4AEF-AC40-14AA7EEDED19}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3152,7 +3426,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="50" name="Gerade Verbindung 49"/>
+        <cdr:cNvPr id="50" name="Gerade Verbindung 49">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CAE0E1-9A3B-4CCA-84C0-DAA4BD790480}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3191,7 +3471,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="51" name="Gerade Verbindung 50"/>
+        <cdr:cNvPr id="51" name="Gerade Verbindung 50">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27187BCF-6904-42F2-B237-F863D7031E3B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3230,7 +3516,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="52" name="Gerade Verbindung 51"/>
+        <cdr:cNvPr id="52" name="Gerade Verbindung 51">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1834F2B4-C59D-4ADD-A78A-EB115A489F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3269,7 +3561,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="53" name="Gerade Verbindung 52"/>
+        <cdr:cNvPr id="53" name="Gerade Verbindung 52">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E05D6A-6E02-46C2-ABE4-BEDB4AE18344}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3308,7 +3606,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="54" name="Gerade Verbindung 53"/>
+        <cdr:cNvPr id="54" name="Gerade Verbindung 53">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D2820A-D7FF-4023-9080-4AB5EC9A3F7F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3347,7 +3651,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="55" name="Gerade Verbindung 54"/>
+        <cdr:cNvPr id="55" name="Gerade Verbindung 54">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C8AC3B-6E0C-45B4-ABAC-E9615A72547E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3386,7 +3696,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="56" name="Gerade Verbindung 55"/>
+        <cdr:cNvPr id="56" name="Gerade Verbindung 55">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639F5F3C-7650-4DED-B21D-BDD0BB9B8550}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3425,7 +3741,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="57" name="Gerade Verbindung 56"/>
+        <cdr:cNvPr id="57" name="Gerade Verbindung 56">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD26FBC-A5F6-4703-BF88-35A1DB68DD48}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3464,7 +3786,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="58" name="Gerade Verbindung 57"/>
+        <cdr:cNvPr id="58" name="Gerade Verbindung 57">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED97E88-3227-4F24-8A9C-32080BE4E98F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3503,7 +3831,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="59" name="Gerade Verbindung 58"/>
+        <cdr:cNvPr id="59" name="Gerade Verbindung 58">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236EB837-4CEA-4DBB-8084-E8E65E9E0BCC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3542,7 +3876,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="61" name="Gerade Verbindung 60"/>
+        <cdr:cNvPr id="61" name="Gerade Verbindung 60">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA86092-D567-4400-A799-C62418A00A31}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3581,7 +3921,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="63" name="Gerade Verbindung 62"/>
+        <cdr:cNvPr id="63" name="Gerade Verbindung 62">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F15C22-B110-4E5E-9015-F823F9317EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3620,7 +3966,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="65" name="Gerade Verbindung 64"/>
+        <cdr:cNvPr id="65" name="Gerade Verbindung 64">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2643B2BB-F1FF-4B00-A8A7-2F8BD16CF708}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3664,7 +4016,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="73" name="Gerade Verbindung 72"/>
+        <cdr:cNvPr id="73" name="Gerade Verbindung 72">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5057B3E-A02F-42AB-9031-C06748831F45}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3708,7 +4066,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="75" name="Gerade Verbindung 74"/>
+        <cdr:cNvPr id="75" name="Gerade Verbindung 74">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D3C503-387C-4F6B-AF2B-79A256C9BAEC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3752,7 +4116,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="77" name="Gerade Verbindung 76"/>
+        <cdr:cNvPr id="77" name="Gerade Verbindung 76">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748214C2-0BFB-40A4-976B-C7FBEFD65C74}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3796,7 +4166,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="79" name="Gerade Verbindung 78"/>
+        <cdr:cNvPr id="79" name="Gerade Verbindung 78">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687A7AC4-2C91-4BA3-ADF5-F533FED297A3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3840,7 +4216,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="83" name="Gerade Verbindung 82"/>
+        <cdr:cNvPr id="83" name="Gerade Verbindung 82">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3891C207-77B0-4992-BA99-340DCF46A321}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3886,7 +4268,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="84" name="Gerade Verbindung 83"/>
+        <cdr:cNvPr id="84" name="Gerade Verbindung 83">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88875391-4701-4A38-8E7D-9C967CAE409B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3932,7 +4320,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="85" name="Gerade Verbindung 84"/>
+        <cdr:cNvPr id="85" name="Gerade Verbindung 84">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2CA32C-B152-46FF-A011-8828CA58E8E6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -3978,7 +4372,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="86" name="Gerade Verbindung 85"/>
+        <cdr:cNvPr id="86" name="Gerade Verbindung 85">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DC4D59-DEEC-401F-A078-6CE474A745CB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4024,7 +4424,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="87" name="Gerade Verbindung 86"/>
+        <cdr:cNvPr id="87" name="Gerade Verbindung 86">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C5C186-38DD-4E87-B27B-BB80EB947DEB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4070,7 +4476,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="88" name="Gerade Verbindung 87"/>
+        <cdr:cNvPr id="88" name="Gerade Verbindung 87">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79349C6-43EB-4D77-82F1-336269F400F5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4116,7 +4528,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="90" name="Gerade Verbindung 89"/>
+        <cdr:cNvPr id="90" name="Gerade Verbindung 89">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8CCFC9-0AE7-4DDC-ABFD-F723B6946374}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4162,7 +4580,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="92" name="Gerade Verbindung 91"/>
+        <cdr:cNvPr id="92" name="Gerade Verbindung 91">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF2B899-BCE3-47A7-9BD3-BE520FF55162}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4208,7 +4632,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="93" name="Gerade Verbindung 92"/>
+        <cdr:cNvPr id="93" name="Gerade Verbindung 92">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091029B4-3FD2-4F85-9983-1FA5DBF79955}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4254,7 +4684,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="94" name="Gerade Verbindung 93"/>
+        <cdr:cNvPr id="94" name="Gerade Verbindung 93">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4B79F3-ADA3-4DCB-82A0-F23519FF4FAB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4300,7 +4736,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="95" name="Gerade Verbindung 94"/>
+        <cdr:cNvPr id="95" name="Gerade Verbindung 94">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68F9B8B-48D4-4C31-9D23-AA149D6B0DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4346,7 +4788,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="96" name="Gerade Verbindung 95"/>
+        <cdr:cNvPr id="96" name="Gerade Verbindung 95">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A514F5-4858-45B6-B6E1-613F419BF5A1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4392,7 +4840,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="98" name="Gerade Verbindung 97"/>
+        <cdr:cNvPr id="98" name="Gerade Verbindung 97">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8717B2-D6F4-498F-B1AD-CE3A2C4085E0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4438,7 +4892,13 @@
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="99" name="Gerade Verbindung 98"/>
+        <cdr:cNvPr id="99" name="Gerade Verbindung 98">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0ABCFE6-666E-40C2-B512-0E1F110D2E30}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
@@ -4762,24 +5222,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="F20:G20"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="5.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="4"/>
-    <col min="13" max="13" width="10.83203125" style="4"/>
-    <col min="15" max="15" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="4"/>
+    <col min="13" max="13" width="10.85546875" style="4"/>
+    <col min="15" max="15" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>14</v>
       </c>
@@ -4799,7 +5261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>2</v>
       </c>
@@ -4825,7 +5287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>3</v>
       </c>
@@ -4839,7 +5301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>8</v>
       </c>
@@ -4853,7 +5315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>9</v>
       </c>
@@ -4867,7 +5329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4882,33 +5344,33 @@
         <v>13</v>
       </c>
       <c r="J7" s="4">
-        <f>(LOG10(G7)-LOG10(G$4))/(LOG10(G$5)-LOG10(G$4))</f>
-        <v>8.47589881390797E-2</v>
+        <f>(LOG(G7,2)-LOG(G$4,2))/(LOG(G$5,2)-LOG(G$4,2))</f>
+        <v>8.4758988139079686E-2</v>
       </c>
       <c r="K7">
-        <f>(LOG10(H7)-LOG10(H$4))/(LOG10(H$5)-LOG10(H$4))</f>
-        <v>0.74218923618040611</v>
+        <f>(LOG(H7,2)-LOG(H$4,2))/(LOG(H$5,2)-LOG(H$4,2))</f>
+        <v>0.74218923618040622</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="15">
         <f>0.5+0.5*J7-0.5*K7</f>
-        <v>0.17128487597933684</v>
+        <v>0.17128487597933678</v>
       </c>
       <c r="N7" s="16">
         <f>1-J7-K7</f>
-        <v>0.17305177568051422</v>
+        <v>0.17305177568051411</v>
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4929,7 +5391,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -4948,33 +5410,33 @@
       <c r="F10" s="8">
         <v>0.25</v>
       </c>
-      <c r="G10" s="9">
-        <f>10^((LOG10(D10)+LOG10(C10))/2)</f>
+      <c r="G10" s="17">
+        <f>2^((LOG(D10,2)+LOG(C10,2))/2)</f>
         <v>88.388347648318472</v>
       </c>
-      <c r="H10" s="9">
-        <f>10^((LOG10(F10)+LOG10(E10))/2)</f>
+      <c r="H10" s="17">
+        <f>2^((LOG(F10,2)+LOG(E10,2))/2)</f>
         <v>0.17677669529663687</v>
       </c>
-      <c r="J10" s="10">
-        <f t="shared" ref="J10" si="0">(LOG10(G10)-LOG10(G$4))/(LOG10(G$5)-LOG10(G$4))</f>
-        <v>6.2500000000000097E-2</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" ref="K10" si="1">(1-(LOG10(H10)-LOG10(H$4))/(LOG10(H$5)-LOG10(H$4)))</f>
+      <c r="J10" s="4">
+        <f>(LOG(G10,2)-LOG(G$4,2))/(LOG(G$5,2)-LOG(G$4,2))</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <f>(1-(LOG(H10,2)-LOG(H$4,2))/(LOG(H$5,2)-LOG(H$4,2)))</f>
         <v>0.9375</v>
       </c>
       <c r="M10" s="13">
-        <f t="shared" ref="M10" si="2">0.5*K10+0.5*J10</f>
+        <f>0.5*K10+0.5*J10</f>
         <v>0.5</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" ref="N10" si="3">K10-J10</f>
-        <v>0.87499999999999989</v>
+        <f t="shared" ref="N10" si="0">K10-J10</f>
+        <v>0.875</v>
       </c>
       <c r="O10" s="11">
         <f>SQRT((M10-$M$7)^2+(N10-$N$7)^2)</f>
-        <v>0.77510318176691739</v>
+        <v>0.77510318176691761</v>
       </c>
       <c r="P10" s="10">
         <f>IF($O10=MIN($O$10:$O$45),M10,-1)</f>
@@ -4985,7 +5447,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5004,44 +5466,44 @@
       <c r="F11">
         <v>0.5</v>
       </c>
-      <c r="G11" s="1">
-        <f>10^((LOG10(D11)+LOG10(C11))/2)</f>
+      <c r="G11" s="18">
+        <f t="shared" ref="G11:G45" si="1">2^((LOG(D11,2)+LOG(C11,2))/2)</f>
         <v>88.388347648318472</v>
       </c>
-      <c r="H11" s="1">
-        <f>10^((LOG10(F11)+LOG10(E11))/2)</f>
-        <v>0.35355339059327373</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" ref="J11:J45" si="4">(LOG10(G11)-LOG10(G$4))/(LOG10(G$5)-LOG10(G$4))</f>
-        <v>6.2500000000000097E-2</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ref="K11:K45" si="5">(1-(LOG10(H11)-LOG10(H$4))/(LOG10(H$5)-LOG10(H$4)))</f>
+      <c r="H11" s="18">
+        <f t="shared" ref="H11:H45" si="2">2^((LOG(F11,2)+LOG(E11,2))/2)</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" ref="J11:J45" si="3">(LOG(G11,2)-LOG(G$4,2))/(LOG(G$5,2)-LOG(G$4,2))</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" ref="K11:K45" si="4">(1-(LOG(H11,2)-LOG(H$4,2))/(LOG(H$5,2)-LOG(H$4,2)))</f>
         <v>0.8125</v>
       </c>
       <c r="M11" s="15">
-        <f t="shared" ref="M11:M45" si="6">0.5*K11+0.5*J11</f>
-        <v>0.43750000000000006</v>
+        <f t="shared" ref="M11:M45" si="5">0.5*K11+0.5*J11</f>
+        <v>0.4375</v>
       </c>
       <c r="N11" s="16">
-        <f t="shared" ref="N11:N45" si="7">K11-J11</f>
-        <v>0.74999999999999989</v>
+        <f t="shared" ref="N11:N45" si="6">K11-J11</f>
+        <v>0.75</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" ref="O11:O45" si="8">SQRT((M11-$M$7)^2+(N11-$N$7)^2)</f>
-        <v>0.63540518238581012</v>
+        <f t="shared" ref="O11:O45" si="7">SQRT((M11-$M$7)^2+(N11-$N$7)^2)</f>
+        <v>0.63540518238581034</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" ref="P11:P45" si="9">IF($O11=MIN($O$10:$O$45),M11,-1)</f>
+        <f t="shared" ref="P11:P45" si="8">IF($O11=MIN($O$10:$O$45),M11,-1)</f>
         <v>-1</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" ref="Q11:Q45" si="10">IF($O11=MIN($O$10:$O$45),N11,-1)</f>
+        <f t="shared" ref="Q11:Q45" si="9">IF($O11=MIN($O$10:$O$45),N11,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -5061,43 +5523,43 @@
         <v>0.25</v>
       </c>
       <c r="G12" s="9">
-        <f>10^((LOG10(D12)+LOG10(C12))/2)</f>
-        <v>176.77669529663694</v>
+        <f t="shared" si="1"/>
+        <v>176.7766952966368</v>
       </c>
       <c r="H12" s="9">
-        <f>10^((LOG10(F12)+LOG10(E12))/2)</f>
+        <f t="shared" si="2"/>
         <v>0.17677669529663687</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18749999999999992</v>
+      </c>
+      <c r="K12" s="7">
         <f t="shared" si="4"/>
-        <v>0.18750000000000008</v>
-      </c>
-      <c r="K12" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="M12" s="13">
         <f t="shared" si="5"/>
-        <v>0.9375</v>
-      </c>
-      <c r="M12" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="N12" s="14">
         <f t="shared" si="6"/>
-        <v>0.5625</v>
-      </c>
-      <c r="N12" s="14">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="O12" s="11">
         <f t="shared" si="7"/>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="O12" s="11">
+        <v>0.69707856573553517</v>
+      </c>
+      <c r="P12" s="10">
         <f t="shared" si="8"/>
-        <v>0.69707856573553484</v>
-      </c>
-      <c r="P12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="8">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="Q12" s="8">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5116,1016 +5578,1016 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" ref="G13:G18" si="11">10^((LOG10(D13)+LOG10(C13))/2)</f>
+      <c r="G13" s="17">
+        <f t="shared" si="1"/>
         <v>88.388347648318472</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" ref="H13:H18" si="12">10^((LOG10(F13)+LOG10(E13))/2)</f>
+      <c r="H13" s="17">
+        <f t="shared" si="2"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="20">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K13" s="19">
         <f t="shared" si="4"/>
-        <v>6.2500000000000097E-2</v>
-      </c>
-      <c r="K13">
+        <v>0.6875</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="N13" s="16">
+        <f t="shared" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="7"/>
+        <v>0.49573889218044059</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>125</v>
+      </c>
+      <c r="D14">
+        <v>250</v>
+      </c>
+      <c r="E14">
+        <v>0.25</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="1"/>
+        <v>176.7766952966368</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="2"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18749999999999992</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.8125</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="5"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" si="6"/>
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="7"/>
+        <v>0.55884777017131992</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>250</v>
+      </c>
+      <c r="D15" s="8">
+        <v>500</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="1"/>
+        <v>353.5533905932736</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="2"/>
+        <v>0.17677669529663687</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="4"/>
+        <v>0.9375</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="N15" s="14">
+        <f t="shared" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="7"/>
+        <v>0.64040191382492151</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>62.5</v>
+      </c>
+      <c r="D16">
+        <v>125</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
+        <v>88.388347648318472</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" si="4"/>
+        <v>0.5625</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="5"/>
+        <v>0.3125</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="7"/>
+        <v>0.35614161879487793</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>125</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="1"/>
+        <v>176.7766952966368</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18749999999999992</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="4"/>
+        <v>0.6875</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="5"/>
+        <v>0.43749999999999994</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="6"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="7"/>
+        <v>0.42162261993754796</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>250</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="1"/>
+        <v>353.5533905932736</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="2"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="4"/>
+        <v>0.8125</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="5"/>
+        <v>0.5625</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="7"/>
+        <v>0.50984744252390612</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8">
+        <v>500</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>707.10678118654732</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="2"/>
+        <v>0.17677669529663687</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="3"/>
+        <v>0.43749999999999994</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="4"/>
+        <v>0.9375</v>
+      </c>
+      <c r="M19" s="13">
         <f t="shared" si="5"/>
         <v>0.6875</v>
       </c>
-      <c r="M13" s="15">
+      <c r="N19" s="14">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="7"/>
+        <v>0.61104271180772096</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>62.5</v>
+      </c>
+      <c r="D20">
+        <v>125</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="1"/>
+        <v>88.388347648318472</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="2"/>
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K20" s="19">
+        <f t="shared" si="4"/>
+        <v>0.4375</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.375</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="7"/>
+        <v>0.21674675558213502</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:B45" si="10">A20+1</f>
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="11">B20+1</f>
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>125</v>
+      </c>
+      <c r="D21">
+        <v>250</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="1"/>
+        <v>176.7766952966368</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18749999999999992</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="4"/>
+        <v>0.5625</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="5"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="6"/>
+        <v>0.37500000000000011</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="7"/>
+        <v>0.28685002538007143</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="12">B21+1</f>
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>250</v>
+      </c>
+      <c r="D22">
+        <v>500</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="1"/>
+        <v>353.5533905932736</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="4"/>
+        <v>0.6875</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="16">
         <f t="shared" si="6"/>
         <v>0.37500000000000006</v>
       </c>
-      <c r="N13" s="16">
+      <c r="O22" s="6">
         <f t="shared" si="7"/>
-        <v>0.62499999999999989</v>
-      </c>
-      <c r="O13" s="6">
+        <v>0.38579362107960447</v>
+      </c>
+      <c r="P22" s="4">
         <f t="shared" si="8"/>
-        <v>0.49573889218044043</v>
-      </c>
-      <c r="P13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="7">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="Q13" s="7">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
         <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="13">B22+1</f>
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>0.25</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="1"/>
+        <v>707.10678118654732</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="3"/>
+        <v>0.43749999999999994</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="4"/>
+        <v>0.8125</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="N23" s="16">
+        <f t="shared" si="6"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="7"/>
+        <v>0.49662913634912648</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="Q23" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" ref="B24" si="14">B23+1</f>
+        <v>10</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="1"/>
+        <v>1414.2135623730949</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="2"/>
+        <v>0.17677669529663687</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="4"/>
+        <v>0.9375</v>
+      </c>
+      <c r="M24" s="13">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="N24" s="14">
+        <f t="shared" si="6"/>
+        <v>0.375</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="7"/>
+        <v>0.61293905086561828</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="15">B24+1</f>
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>62.5</v>
+      </c>
+      <c r="D25">
+        <v>125</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="1"/>
+        <v>88.388347648318472</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="2"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K25" s="19">
+        <f t="shared" si="4"/>
+        <v>0.3125</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="7"/>
+        <v>7.8638155325054582E-2</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="16">B25+1</f>
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>125</v>
+      </c>
+      <c r="D26">
+        <v>250</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="1"/>
+        <v>176.7766952966368</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="2"/>
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18749999999999992</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="4"/>
+        <v>0.4375</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="5"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="7"/>
+        <v>0.16081896802956178</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="17">B26+1</f>
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>250</v>
+      </c>
+      <c r="D27">
+        <v>500</v>
+      </c>
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="1"/>
+        <v>353.5533905932736</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="4"/>
+        <v>0.5625</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="5"/>
+        <v>0.4375</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="7"/>
+        <v>0.27711283168279854</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="18">B27+1</f>
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>125</v>
-      </c>
-      <c r="D14">
-        <v>250</v>
-      </c>
-      <c r="E14">
+      <c r="G28" s="17">
+        <f t="shared" si="1"/>
+        <v>707.10678118654732</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="3"/>
+        <v>0.43749999999999994</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="4"/>
+        <v>0.6875</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="5"/>
+        <v>0.5625</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="7"/>
+        <v>0.398710800566557</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="19">B28+1</f>
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <v>2000</v>
+      </c>
+      <c r="E29">
         <v>0.25</v>
       </c>
-      <c r="F14">
+      <c r="F29">
         <v>0.5</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="11"/>
-        <v>176.77669529663694</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="12"/>
-        <v>0.35355339059327373</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="G29" s="17">
+        <f t="shared" si="1"/>
+        <v>1414.2135623730949</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="2"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="K29" s="7">
         <f t="shared" si="4"/>
-        <v>0.18750000000000008</v>
-      </c>
-      <c r="K14">
+        <v>0.8125</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="5"/>
+        <v>0.6875</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="7"/>
+        <v>0.52191865601220899</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" ref="B30" si="20">B29+1</f>
+        <v>16</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="1"/>
+        <v>2828.4271247461897</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="2"/>
+        <v>0.17677669529663687</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="3"/>
+        <v>0.6875</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" si="4"/>
+        <v>0.9375</v>
+      </c>
+      <c r="M30" s="13">
         <f t="shared" si="5"/>
         <v>0.8125</v>
       </c>
-      <c r="M14" s="15">
+      <c r="N30" s="14">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="N14" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="O30" s="11">
         <f t="shared" si="7"/>
-        <v>0.62499999999999989</v>
-      </c>
-      <c r="O14" s="6">
+        <v>0.64581565829480814</v>
+      </c>
+      <c r="P30" s="10">
         <f t="shared" si="8"/>
-        <v>0.5588477701713197</v>
-      </c>
-      <c r="P14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="8">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="Q14" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>250</v>
-      </c>
-      <c r="D15" s="8">
-        <v>500</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="11"/>
-        <v>353.55339059327395</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="12"/>
-        <v>0.17677669529663687</v>
-      </c>
-      <c r="J15" s="10">
-        <f t="shared" si="4"/>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="K15" s="8">
-        <f t="shared" si="5"/>
-        <v>0.9375</v>
-      </c>
-      <c r="M15" s="13">
-        <f t="shared" si="6"/>
-        <v>0.625</v>
-      </c>
-      <c r="N15" s="14">
-        <f t="shared" si="7"/>
-        <v>0.62499999999999989</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" si="8"/>
-        <v>0.64040191382492129</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="8">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>62.5</v>
-      </c>
-      <c r="D16">
-        <v>125</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="11"/>
-        <v>88.388347648318472</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="4"/>
-        <v>6.2500000000000097E-2</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>0.5625</v>
-      </c>
-      <c r="M16" s="15">
-        <f t="shared" si="6"/>
-        <v>0.31250000000000006</v>
-      </c>
-      <c r="N16" s="16">
-        <f t="shared" si="7"/>
-        <v>0.49999999999999989</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="8"/>
-        <v>0.35614161879487771</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>125</v>
-      </c>
-      <c r="D17">
-        <v>250</v>
-      </c>
-      <c r="E17">
-        <v>0.5</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="11"/>
-        <v>176.77669529663694</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="12"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="4"/>
-        <v>0.18750000000000008</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
-        <v>0.6875</v>
-      </c>
-      <c r="M17" s="15">
-        <f t="shared" si="6"/>
-        <v>0.43750000000000006</v>
-      </c>
-      <c r="N17" s="16">
-        <f t="shared" si="7"/>
-        <v>0.49999999999999989</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="8"/>
-        <v>0.42162261993754774</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>250</v>
-      </c>
-      <c r="D18">
-        <v>500</v>
-      </c>
-      <c r="E18">
-        <v>0.25</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="11"/>
-        <v>353.55339059327395</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="12"/>
-        <v>0.35355339059327373</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="4"/>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
-        <v>0.8125</v>
-      </c>
-      <c r="M18" s="15">
-        <f t="shared" si="6"/>
-        <v>0.5625</v>
-      </c>
-      <c r="N18" s="16">
-        <f t="shared" si="7"/>
-        <v>0.49999999999999989</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="8"/>
-        <v>0.5098474425239059</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q18" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8">
-        <v>500</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="G19" s="9">
-        <f t="shared" ref="G19:G45" si="13">10^((LOG10(D19)+LOG10(C19))/2)</f>
-        <v>707.10678118654801</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="shared" ref="H19:H45" si="14">10^((LOG10(F19)+LOG10(E19))/2)</f>
-        <v>0.17677669529663687</v>
-      </c>
-      <c r="J19" s="10">
-        <f t="shared" si="4"/>
-        <v>0.43750000000000011</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" si="5"/>
-        <v>0.9375</v>
-      </c>
-      <c r="M19" s="13">
-        <f t="shared" si="6"/>
-        <v>0.6875</v>
-      </c>
-      <c r="N19" s="14">
-        <f t="shared" si="7"/>
-        <v>0.49999999999999989</v>
-      </c>
-      <c r="O19" s="11">
-        <f t="shared" si="8"/>
-        <v>0.61104271180772085</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q19" s="8">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>62.5</v>
-      </c>
-      <c r="D20">
-        <v>125</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="13"/>
-        <v>88.388347648318472</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="14"/>
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="4"/>
-        <v>6.2500000000000097E-2</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
-        <v>0.4375</v>
-      </c>
-      <c r="M20" s="15">
-        <f t="shared" si="6"/>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="N20" s="16">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999989</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="8"/>
-        <v>0.21674675558213483</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q20" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" ref="A17:B45" si="15">A20+1</f>
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ref="B21" si="16">B20+1</f>
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>125</v>
-      </c>
-      <c r="D21">
-        <v>250</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="13"/>
-        <v>176.77669529663694</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="14"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="4"/>
-        <v>0.18750000000000008</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="5"/>
-        <v>0.5625</v>
-      </c>
-      <c r="M21" s="15">
-        <f t="shared" si="6"/>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="N21" s="16">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999989</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" si="8"/>
-        <v>0.28685002538007121</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q21" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ref="B22" si="17">B21+1</f>
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>250</v>
-      </c>
-      <c r="D22">
-        <v>500</v>
-      </c>
-      <c r="E22">
-        <v>0.5</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="13"/>
-        <v>353.55339059327395</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="14"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="4"/>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="5"/>
-        <v>0.6875</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="N22" s="16">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999989</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="8"/>
-        <v>0.38579362107960424</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q22" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="15"/>
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ref="B23" si="18">B22+1</f>
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>500</v>
-      </c>
-      <c r="D23">
-        <v>1000</v>
-      </c>
-      <c r="E23">
-        <v>0.25</v>
-      </c>
-      <c r="F23">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="13"/>
-        <v>707.10678118654801</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="14"/>
-        <v>0.35355339059327373</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="4"/>
-        <v>0.43750000000000011</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="5"/>
-        <v>0.8125</v>
-      </c>
-      <c r="M23" s="15">
-        <f t="shared" si="6"/>
-        <v>0.625</v>
-      </c>
-      <c r="N23" s="16">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999989</v>
-      </c>
-      <c r="O23" s="6">
-        <f t="shared" si="8"/>
-        <v>0.49662913634912631</v>
-      </c>
-      <c r="P23" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q23" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="B24" s="8">
-        <f t="shared" ref="B24" si="19">B23+1</f>
-        <v>10</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="G24" s="9">
-        <f t="shared" si="13"/>
-        <v>1414.213562373096</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="14"/>
-        <v>0.17677669529663687</v>
-      </c>
-      <c r="J24" s="10">
-        <f t="shared" si="4"/>
-        <v>0.56250000000000011</v>
-      </c>
-      <c r="K24" s="8">
-        <f t="shared" si="5"/>
-        <v>0.9375</v>
-      </c>
-      <c r="M24" s="13">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="N24" s="14">
-        <f t="shared" si="7"/>
-        <v>0.37499999999999989</v>
-      </c>
-      <c r="O24" s="11">
-        <f t="shared" si="8"/>
-        <v>0.61293905086561817</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q24" s="8">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="15"/>
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25" si="20">B24+1</f>
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>62.5</v>
-      </c>
-      <c r="D25">
-        <v>125</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="13"/>
-        <v>88.388347648318472</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="14"/>
-        <v>5.6568542494923806</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="4"/>
-        <v>6.2500000000000097E-2</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="5"/>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="M25" s="15">
-        <f t="shared" si="6"/>
-        <v>0.18750000000000011</v>
-      </c>
-      <c r="N25" s="16">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" si="8"/>
-        <v>7.8638155325054485E-2</v>
-      </c>
-      <c r="P25" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q25" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ref="B26" si="21">B25+1</f>
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>125</v>
-      </c>
-      <c r="D26">
-        <v>250</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="13"/>
-        <v>176.77669529663694</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="14"/>
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="4"/>
-        <v>0.18750000000000008</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="5"/>
-        <v>0.4375</v>
-      </c>
-      <c r="M26" s="15">
-        <f t="shared" si="6"/>
-        <v>0.31250000000000006</v>
-      </c>
-      <c r="N26" s="16">
-        <f t="shared" si="7"/>
-        <v>0.24999999999999992</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="8"/>
-        <v>0.16081896802956169</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q26" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ref="B27" si="22">B26+1</f>
-        <v>13</v>
-      </c>
-      <c r="C27">
-        <v>250</v>
-      </c>
-      <c r="D27">
-        <v>500</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="13"/>
-        <v>353.55339059327395</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="14"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" si="4"/>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="5"/>
-        <v>0.5625</v>
-      </c>
-      <c r="M27" s="15">
-        <f t="shared" si="6"/>
-        <v>0.43750000000000006</v>
-      </c>
-      <c r="N27" s="16">
-        <f t="shared" si="7"/>
-        <v>0.24999999999999989</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="8"/>
-        <v>0.27711283168279843</v>
-      </c>
-      <c r="P27" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q27" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="15"/>
-        <v>14</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28" si="23">B27+1</f>
-        <v>14</v>
-      </c>
-      <c r="C28">
-        <v>500</v>
-      </c>
-      <c r="D28">
-        <v>1000</v>
-      </c>
-      <c r="E28">
-        <v>0.5</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="13"/>
-        <v>707.10678118654801</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="14"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="4"/>
-        <v>0.43750000000000011</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="5"/>
-        <v>0.6875</v>
-      </c>
-      <c r="M28" s="15">
-        <f t="shared" si="6"/>
-        <v>0.5625</v>
-      </c>
-      <c r="N28" s="16">
-        <f t="shared" si="7"/>
-        <v>0.24999999999999989</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" si="8"/>
-        <v>0.39871080056655694</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q28" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ref="B29" si="24">B28+1</f>
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>1000</v>
-      </c>
-      <c r="D29">
-        <v>2000</v>
-      </c>
-      <c r="E29">
-        <v>0.25</v>
-      </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="13"/>
-        <v>1414.213562373096</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="14"/>
-        <v>0.35355339059327373</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="4"/>
-        <v>0.56250000000000011</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="5"/>
-        <v>0.8125</v>
-      </c>
-      <c r="M29" s="15">
-        <f t="shared" si="6"/>
-        <v>0.6875</v>
-      </c>
-      <c r="N29" s="16">
-        <f t="shared" si="7"/>
-        <v>0.24999999999999989</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="8"/>
-        <v>0.52191865601220899</v>
-      </c>
-      <c r="P29" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q29" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="B30" s="8">
-        <f t="shared" ref="B30" si="25">B29+1</f>
-        <v>16</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D30" s="8">
-        <v>4000</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="G30" s="9">
-        <f t="shared" si="13"/>
-        <v>2828.4271247461925</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="14"/>
-        <v>0.17677669529663687</v>
-      </c>
-      <c r="J30" s="10">
-        <f t="shared" si="4"/>
-        <v>0.68750000000000011</v>
-      </c>
-      <c r="K30" s="8">
-        <f t="shared" si="5"/>
-        <v>0.9375</v>
-      </c>
-      <c r="M30" s="13">
-        <f t="shared" si="6"/>
-        <v>0.8125</v>
-      </c>
-      <c r="N30" s="14">
-        <f t="shared" si="7"/>
-        <v>0.24999999999999989</v>
-      </c>
-      <c r="O30" s="11">
-        <f t="shared" si="8"/>
-        <v>0.64581565829480803</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q30" s="8">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>24</v>
       </c>
@@ -6144,44 +6606,44 @@
       <c r="F31">
         <v>16</v>
       </c>
-      <c r="G31" s="1">
-        <f t="shared" si="13"/>
+      <c r="G31" s="17">
+        <f t="shared" si="1"/>
         <v>88.388347648318472</v>
       </c>
-      <c r="H31" s="1">
-        <f t="shared" si="14"/>
-        <v>11.313708498984765</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="H31" s="17">
+        <f t="shared" si="2"/>
+        <v>11.313708498984759</v>
+      </c>
+      <c r="J31" s="20">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K31" s="19">
         <f t="shared" si="4"/>
-        <v>6.2500000000000097E-2</v>
-      </c>
-      <c r="K31">
+        <v>0.1875</v>
+      </c>
+      <c r="M31" s="15">
         <f t="shared" si="5"/>
-        <v>0.18749999999999989</v>
-      </c>
-      <c r="M31" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="N31" s="16">
         <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
-      <c r="N31" s="16">
+      <c r="O31" s="6">
         <f t="shared" si="7"/>
-        <v>0.12499999999999979</v>
-      </c>
-      <c r="O31" s="6">
+        <v>6.6717785413434053E-2</v>
+      </c>
+      <c r="P31" s="4">
         <f t="shared" si="8"/>
-        <v>6.6717785413434316E-2</v>
-      </c>
-      <c r="P31" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="Q31" s="7">
         <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
-      <c r="Q31" s="7">
-        <f t="shared" si="10"/>
-        <v>0.12499999999999979</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>A31+1</f>
         <v>25</v>
@@ -6202,50 +6664,50 @@
       <c r="F32">
         <v>8</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" si="13"/>
-        <v>176.77669529663694</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="14"/>
+      <c r="G32" s="17">
+        <f t="shared" si="1"/>
+        <v>176.7766952966368</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="2"/>
         <v>5.6568542494923806</v>
       </c>
       <c r="J32" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18749999999999992</v>
+      </c>
+      <c r="K32" s="7">
         <f t="shared" si="4"/>
-        <v>0.18750000000000008</v>
-      </c>
-      <c r="K32">
+        <v>0.3125</v>
+      </c>
+      <c r="M32" s="15">
         <f t="shared" si="5"/>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="M32" s="15">
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="N32" s="16">
         <f t="shared" si="6"/>
-        <v>0.25000000000000011</v>
-      </c>
-      <c r="N32" s="16">
+        <v>0.12500000000000008</v>
+      </c>
+      <c r="O32" s="6">
         <f t="shared" si="7"/>
-        <v>0.12500000000000003</v>
-      </c>
-      <c r="O32" s="6">
+        <v>9.2222794880868916E-2</v>
+      </c>
+      <c r="P32" s="4">
         <f t="shared" si="8"/>
-        <v>9.2222794880869097E-2</v>
-      </c>
-      <c r="P32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="7">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="Q32" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" ref="A33:B37" si="26">A32+1</f>
+        <f t="shared" ref="A33:B37" si="21">A32+1</f>
         <v>26</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="C33">
@@ -6260,769 +6722,769 @@
       <c r="F33">
         <v>4</v>
       </c>
-      <c r="G33" s="1">
-        <f t="shared" si="13"/>
-        <v>353.55339059327395</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="14"/>
-        <v>2.8284271247461903</v>
+      <c r="G33" s="17">
+        <f t="shared" si="1"/>
+        <v>353.5533905932736</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="2"/>
+        <v>2.8284271247461898</v>
       </c>
       <c r="J33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="K33" s="7">
         <f t="shared" si="4"/>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="K33">
+        <v>0.4375</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="N33" s="16">
+        <f t="shared" si="6"/>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="7"/>
+        <v>0.20930557780624154</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>500</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="17">
+        <f t="shared" si="1"/>
+        <v>707.10678118654732</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="3"/>
+        <v>0.43749999999999994</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="4"/>
+        <v>0.5625</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="N34" s="16">
+        <f t="shared" si="6"/>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="7"/>
+        <v>0.33220867825204453</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="21"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="21"/>
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35">
+        <v>2000</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="1"/>
+        <v>1414.2135623730949</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="K35" s="7">
+        <f t="shared" si="4"/>
+        <v>0.6875</v>
+      </c>
+      <c r="M35" s="15">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="N35" s="16">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="7"/>
+        <v>0.45625254729276443</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="21"/>
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>2000</v>
+      </c>
+      <c r="D36">
+        <v>4000</v>
+      </c>
+      <c r="E36">
+        <v>0.25</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="17">
+        <f t="shared" si="1"/>
+        <v>2828.4271247461897</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="2"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="3"/>
+        <v>0.6875</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="4"/>
+        <v>0.8125</v>
+      </c>
+      <c r="M36" s="15">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="N36" s="16">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="7"/>
+        <v>0.58070661087704345</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="12">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="C37" s="8">
+        <v>4000</v>
+      </c>
+      <c r="D37" s="8">
+        <v>8000</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="1"/>
+        <v>5656.8542494923749</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="2"/>
+        <v>0.17677669529663687</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="3"/>
+        <v>0.8125</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="4"/>
+        <v>0.9375</v>
+      </c>
+      <c r="M37" s="13">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+      <c r="N37" s="14">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="O37" s="11">
+        <f t="shared" si="7"/>
+        <v>0.70535377571929658</v>
+      </c>
+      <c r="P37" s="10">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="8">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>62.5</v>
+      </c>
+      <c r="D38">
+        <v>125</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>32</v>
+      </c>
+      <c r="G38" s="17">
+        <f t="shared" si="1"/>
+        <v>88.388347648318472</v>
+      </c>
+      <c r="H38" s="17">
+        <f t="shared" si="2"/>
+        <v>22.627416997969519</v>
+      </c>
+      <c r="J38" s="20">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K38" s="19">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M38" s="15">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="N38" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="7"/>
+        <v>0.20440417390067811</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>125</v>
+      </c>
+      <c r="D39">
+        <v>250</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>16</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="1"/>
+        <v>176.7766952966368</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="2"/>
+        <v>11.313708498984759</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18749999999999992</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
+      </c>
+      <c r="M39" s="15">
+        <f t="shared" si="5"/>
+        <v>0.18749999999999994</v>
+      </c>
+      <c r="N39" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="7"/>
+        <v>0.17380980212054917</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>33</v>
+      </c>
+      <c r="C40">
+        <v>250</v>
+      </c>
+      <c r="D40">
+        <v>500</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" si="1"/>
+        <v>353.5533905932736</v>
+      </c>
+      <c r="H40" s="17">
+        <f t="shared" si="2"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" si="4"/>
+        <v>0.3125</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" si="5"/>
+        <v>0.3125</v>
+      </c>
+      <c r="N40" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="7"/>
+        <v>0.22335762426734007</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="C41">
+        <v>500</v>
+      </c>
+      <c r="D41">
+        <v>1000</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="1"/>
+        <v>707.10678118654732</v>
+      </c>
+      <c r="H41" s="17">
+        <f t="shared" si="2"/>
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="3"/>
+        <v>0.43749999999999994</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="4"/>
+        <v>0.4375</v>
+      </c>
+      <c r="M41" s="15">
         <f t="shared" si="5"/>
         <v>0.4375</v>
       </c>
-      <c r="M33" s="15">
+      <c r="N41" s="16">
         <f t="shared" si="6"/>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
         <f t="shared" si="7"/>
-        <v>0.12499999999999989</v>
-      </c>
-      <c r="O33" s="6">
+        <v>0.31751757325149121</v>
+      </c>
+      <c r="P41" s="4">
         <f t="shared" si="8"/>
-        <v>0.20930557780624162</v>
-      </c>
-      <c r="P33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="7">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="Q33" s="7">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
         <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <f t="shared" si="26"/>
-        <v>27</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="26"/>
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>500</v>
-      </c>
-      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="C42">
         <v>1000</v>
       </c>
-      <c r="E34">
+      <c r="D42">
+        <v>2000</v>
+      </c>
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="F34">
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" si="13"/>
-        <v>707.10678118654801</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="14"/>
+      <c r="G42" s="17">
+        <f t="shared" si="1"/>
+        <v>1414.2135623730949</v>
+      </c>
+      <c r="H42" s="17">
+        <f t="shared" si="2"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J42" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="K42" s="7">
         <f t="shared" si="4"/>
-        <v>0.43750000000000011</v>
-      </c>
-      <c r="K34">
+        <v>0.5625</v>
+      </c>
+      <c r="M42" s="15">
         <f t="shared" si="5"/>
         <v>0.5625</v>
       </c>
-      <c r="M34" s="15">
+      <c r="N42" s="16">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="N34" s="16">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
         <f t="shared" si="7"/>
-        <v>0.12499999999999989</v>
-      </c>
-      <c r="O34" s="6">
+        <v>0.42778053991349568</v>
+      </c>
+      <c r="P42" s="4">
         <f t="shared" si="8"/>
-        <v>0.33220867825204453</v>
-      </c>
-      <c r="P34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="7">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="Q34" s="7">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
         <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <f t="shared" si="26"/>
-        <v>28</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" si="26"/>
-        <v>21</v>
-      </c>
-      <c r="C35">
-        <v>1000</v>
-      </c>
-      <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="C43">
         <v>2000</v>
       </c>
-      <c r="E35">
+      <c r="D43">
+        <v>4000</v>
+      </c>
+      <c r="E43">
         <v>0.5</v>
       </c>
-      <c r="F35">
+      <c r="F43">
         <v>1</v>
       </c>
-      <c r="G35" s="1">
-        <f t="shared" si="13"/>
-        <v>1414.213562373096</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="14"/>
+      <c r="G43" s="17">
+        <f t="shared" si="1"/>
+        <v>2828.4271247461897</v>
+      </c>
+      <c r="H43" s="17">
+        <f t="shared" si="2"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J43" s="4">
+        <f t="shared" si="3"/>
+        <v>0.6875</v>
+      </c>
+      <c r="K43" s="7">
         <f t="shared" si="4"/>
-        <v>0.56250000000000011</v>
-      </c>
-      <c r="K35">
+        <v>0.6875</v>
+      </c>
+      <c r="M43" s="15">
         <f t="shared" si="5"/>
         <v>0.6875</v>
       </c>
-      <c r="M35" s="15">
+      <c r="N43" s="16">
         <f t="shared" si="6"/>
-        <v>0.625</v>
-      </c>
-      <c r="N35" s="16">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
         <f t="shared" si="7"/>
-        <v>0.12499999999999989</v>
-      </c>
-      <c r="O35" s="6">
+        <v>0.54444923669139955</v>
+      </c>
+      <c r="P43" s="4">
         <f t="shared" si="8"/>
-        <v>0.45625254729276443</v>
-      </c>
-      <c r="P35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="7">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="Q35" s="7">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
         <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <f t="shared" si="26"/>
-        <v>29</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" si="26"/>
-        <v>22</v>
-      </c>
-      <c r="C36">
-        <v>2000</v>
-      </c>
-      <c r="D36">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="C44">
         <v>4000</v>
       </c>
-      <c r="E36">
+      <c r="D44">
+        <v>8000</v>
+      </c>
+      <c r="E44">
         <v>0.25</v>
       </c>
-      <c r="F36">
+      <c r="F44">
         <v>0.5</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="13"/>
-        <v>2828.4271247461925</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="14"/>
-        <v>0.35355339059327373</v>
-      </c>
-      <c r="J36" s="4">
+      <c r="G44" s="17">
+        <f t="shared" si="1"/>
+        <v>5656.8542494923749</v>
+      </c>
+      <c r="H44" s="17">
+        <f t="shared" si="2"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="3"/>
+        <v>0.8125</v>
+      </c>
+      <c r="K44" s="7">
         <f t="shared" si="4"/>
-        <v>0.68750000000000011</v>
-      </c>
-      <c r="K36">
+        <v>0.8125</v>
+      </c>
+      <c r="M44" s="15">
         <f t="shared" si="5"/>
         <v>0.8125</v>
       </c>
-      <c r="M36" s="15">
+      <c r="N44" s="16">
         <f t="shared" si="6"/>
-        <v>0.75</v>
-      </c>
-      <c r="N36" s="16">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
         <f t="shared" si="7"/>
-        <v>0.12499999999999989</v>
-      </c>
-      <c r="O36" s="6">
+        <v>0.66415642158983401</v>
+      </c>
+      <c r="P44" s="4">
         <f t="shared" si="8"/>
-        <v>0.58070661087704345</v>
-      </c>
-      <c r="P36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="7">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="Q36" s="7">
+    </row>
+    <row r="45" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <f t="shared" si="26"/>
-        <v>30</v>
-      </c>
-      <c r="B37" s="12">
-        <f t="shared" si="26"/>
-        <v>23</v>
-      </c>
-      <c r="C37" s="8">
-        <v>4000</v>
-      </c>
-      <c r="D37" s="8">
+        <v>38</v>
+      </c>
+      <c r="B45" s="8">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="C45" s="8">
         <v>8000</v>
       </c>
-      <c r="E37" s="8">
+      <c r="D45" s="8">
+        <v>16000</v>
+      </c>
+      <c r="E45" s="8">
         <v>0.125</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F45" s="8">
         <v>0.25</v>
       </c>
-      <c r="G37" s="9">
-        <f t="shared" si="13"/>
-        <v>5656.854249492385</v>
-      </c>
-      <c r="H37" s="9">
-        <f t="shared" si="14"/>
+      <c r="G45" s="9">
+        <f t="shared" si="1"/>
+        <v>11313.708498984752</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="2"/>
         <v>0.17677669529663687</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J45" s="10">
+        <f t="shared" si="3"/>
+        <v>0.9375</v>
+      </c>
+      <c r="K45" s="8">
         <f t="shared" si="4"/>
-        <v>0.81249999999999989</v>
-      </c>
-      <c r="K37" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="M45" s="13">
         <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
-      <c r="M37" s="13">
+      <c r="N45" s="14">
         <f t="shared" si="6"/>
-        <v>0.875</v>
-      </c>
-      <c r="N37" s="14">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11">
         <f t="shared" si="7"/>
-        <v>0.12500000000000011</v>
-      </c>
-      <c r="O37" s="11">
+        <v>0.78551418405028139</v>
+      </c>
+      <c r="P45" s="10">
         <f t="shared" si="8"/>
-        <v>0.70535377571929658</v>
-      </c>
-      <c r="P37" s="10">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="8">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
-      <c r="Q37" s="8">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>31</v>
-      </c>
-      <c r="B38">
-        <v>31</v>
-      </c>
-      <c r="C38">
-        <v>62.5</v>
-      </c>
-      <c r="D38">
-        <v>125</v>
-      </c>
-      <c r="E38">
-        <v>16</v>
-      </c>
-      <c r="F38">
-        <v>32</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="13"/>
-        <v>88.388347648318472</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="14"/>
-        <v>22.627416997969529</v>
-      </c>
-      <c r="J38" s="4">
-        <f t="shared" si="4"/>
-        <v>6.2500000000000097E-2</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="5"/>
-        <v>6.2499999999999778E-2</v>
-      </c>
-      <c r="M38" s="15">
-        <f t="shared" si="6"/>
-        <v>6.2499999999999938E-2</v>
-      </c>
-      <c r="N38" s="16">
-        <f t="shared" si="7"/>
-        <v>-3.1918911957973251E-16</v>
-      </c>
-      <c r="O38" s="6">
-        <f t="shared" si="8"/>
-        <v>0.20440417390067855</v>
-      </c>
-      <c r="P38" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q38" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>32</v>
-      </c>
-      <c r="B39">
-        <v>32</v>
-      </c>
-      <c r="C39">
-        <v>125</v>
-      </c>
-      <c r="D39">
-        <v>250</v>
-      </c>
-      <c r="E39">
-        <v>8</v>
-      </c>
-      <c r="F39">
-        <v>16</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="13"/>
-        <v>176.77669529663694</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="14"/>
-        <v>11.313708498984765</v>
-      </c>
-      <c r="J39" s="4">
-        <f t="shared" si="4"/>
-        <v>0.18750000000000008</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="5"/>
-        <v>0.18749999999999989</v>
-      </c>
-      <c r="M39" s="15">
-        <f t="shared" si="6"/>
-        <v>0.1875</v>
-      </c>
-      <c r="N39" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="6">
-        <f t="shared" si="8"/>
-        <v>0.17380980212054928</v>
-      </c>
-      <c r="P39" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q39" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>33</v>
-      </c>
-      <c r="B40">
-        <v>33</v>
-      </c>
-      <c r="C40">
-        <v>250</v>
-      </c>
-      <c r="D40">
-        <v>500</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="13"/>
-        <v>353.55339059327395</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="14"/>
-        <v>5.6568542494923806</v>
-      </c>
-      <c r="J40" s="4">
-        <f t="shared" si="4"/>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="5"/>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="M40" s="15">
-        <f t="shared" si="6"/>
-        <v>0.31250000000000011</v>
-      </c>
-      <c r="N40" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <f t="shared" si="8"/>
-        <v>0.22335762426734021</v>
-      </c>
-      <c r="P40" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q40" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="15"/>
-        <v>34</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="15"/>
-        <v>34</v>
-      </c>
-      <c r="C41">
-        <v>500</v>
-      </c>
-      <c r="D41">
-        <v>1000</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="13"/>
-        <v>707.10678118654801</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="14"/>
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="J41" s="4">
-        <f t="shared" si="4"/>
-        <v>0.43750000000000011</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="5"/>
-        <v>0.4375</v>
-      </c>
-      <c r="M41" s="15">
-        <f t="shared" si="6"/>
-        <v>0.43750000000000006</v>
-      </c>
-      <c r="N41" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <f t="shared" si="8"/>
-        <v>0.31751757325149127</v>
-      </c>
-      <c r="P41" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q41" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="15"/>
-        <v>35</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="15"/>
-        <v>35</v>
-      </c>
-      <c r="C42">
-        <v>1000</v>
-      </c>
-      <c r="D42">
-        <v>2000</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="13"/>
-        <v>1414.213562373096</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="14"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="J42" s="4">
-        <f t="shared" si="4"/>
-        <v>0.56250000000000011</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="5"/>
-        <v>0.5625</v>
-      </c>
-      <c r="M42" s="15">
-        <f t="shared" si="6"/>
-        <v>0.5625</v>
-      </c>
-      <c r="N42" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="6">
-        <f t="shared" si="8"/>
-        <v>0.42778053991349568</v>
-      </c>
-      <c r="P42" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q42" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="15"/>
-        <v>36</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="15"/>
-        <v>36</v>
-      </c>
-      <c r="C43">
-        <v>2000</v>
-      </c>
-      <c r="D43">
-        <v>4000</v>
-      </c>
-      <c r="E43">
-        <v>0.5</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="13"/>
-        <v>2828.4271247461925</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="14"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="J43" s="4">
-        <f t="shared" si="4"/>
-        <v>0.68750000000000011</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="5"/>
-        <v>0.6875</v>
-      </c>
-      <c r="M43" s="15">
-        <f t="shared" si="6"/>
-        <v>0.6875</v>
-      </c>
-      <c r="N43" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <f t="shared" si="8"/>
-        <v>0.54444923669139955</v>
-      </c>
-      <c r="P43" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q43" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="15"/>
-        <v>37</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="15"/>
-        <v>37</v>
-      </c>
-      <c r="C44">
-        <v>4000</v>
-      </c>
-      <c r="D44">
-        <v>8000</v>
-      </c>
-      <c r="E44">
-        <v>0.25</v>
-      </c>
-      <c r="F44">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="13"/>
-        <v>5656.854249492385</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="14"/>
-        <v>0.35355339059327373</v>
-      </c>
-      <c r="J44" s="4">
-        <f t="shared" si="4"/>
-        <v>0.81249999999999989</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="5"/>
-        <v>0.8125</v>
-      </c>
-      <c r="M44" s="15">
-        <f t="shared" si="6"/>
-        <v>0.8125</v>
-      </c>
-      <c r="N44" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="6">
-        <f t="shared" si="8"/>
-        <v>0.66415642158983412</v>
-      </c>
-      <c r="P44" s="4">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q44" s="7">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
-        <f t="shared" si="15"/>
-        <v>38</v>
-      </c>
-      <c r="B45" s="8">
-        <f t="shared" si="15"/>
-        <v>38</v>
-      </c>
-      <c r="C45" s="8">
-        <v>8000</v>
-      </c>
-      <c r="D45" s="8">
-        <v>16000</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="G45" s="9">
-        <f t="shared" si="13"/>
-        <v>11313.708498984772</v>
-      </c>
-      <c r="H45" s="9">
-        <f t="shared" si="14"/>
-        <v>0.17677669529663687</v>
-      </c>
-      <c r="J45" s="10">
-        <f t="shared" si="4"/>
-        <v>0.9375</v>
-      </c>
-      <c r="K45" s="8">
-        <f t="shared" si="5"/>
-        <v>0.9375</v>
-      </c>
-      <c r="M45" s="13">
-        <f t="shared" si="6"/>
-        <v>0.9375</v>
-      </c>
-      <c r="N45" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="11">
-        <f t="shared" si="8"/>
-        <v>0.78551418405028139</v>
-      </c>
-      <c r="P45" s="10">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="Q45" s="8">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="M46" s="5"/>
       <c r="N46" s="3"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="M47" s="5"/>
       <c r="N47" s="3"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="M48" s="5"/>
       <c r="N48" s="3"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="M49" s="5"/>
       <c r="N49" s="3"/>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="M50" s="5"/>
       <c r="N50" s="3"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="M51" s="5"/>
@@ -7038,185 +7500,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="F7:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
@@ -7226,12 +7688,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
